--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE39EA-2B0F-BB4C-AE0E-544E6375B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED55B2-866E-AD42-B4AD-ACA701B7BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="2" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4C" sheetId="1" r:id="rId1"/>
-    <sheet name="4-2C" sheetId="2" r:id="rId2"/>
-    <sheet name="1-2C-D" sheetId="3" r:id="rId3"/>
-    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId4"/>
-    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId5"/>
+    <sheet name="1-4C-D" sheetId="7" r:id="rId2"/>
+    <sheet name="1-4C-1-2C-D" sheetId="8" r:id="rId3"/>
+    <sheet name="4-2C" sheetId="2" r:id="rId4"/>
+    <sheet name="1-2C-D" sheetId="3" r:id="rId5"/>
+    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId6"/>
+    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="34">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -495,7 +497,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F7BA6-4AF1-B64E-AA84-5870BE031591}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -729,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,23 +753,23 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -778,7 +780,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -789,7 +791,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -800,29 +802,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -833,7 +835,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -844,18 +846,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -866,18 +868,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -892,10 +894,401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FD474-9409-E64A-9997-B68E0E125787}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871999B-D98D-B040-AD86-D70DC978BDA1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C929E2B7-19A0-9743-9019-EEC6C3B1DC0F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1103,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F29E94-0DC0-F944-8348-47679538FB10}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED55B2-866E-AD42-B4AD-ACA701B7BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121833B6-CA82-CE44-B5C1-AFAB2A952BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="2" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
+    <workbookView xWindow="3620" yWindow="740" windowWidth="12780" windowHeight="17140" firstSheet="3" activeTab="9" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-4C" sheetId="1" r:id="rId1"/>
-    <sheet name="1-4C-D" sheetId="7" r:id="rId2"/>
-    <sheet name="1-4C-1-2C-D" sheetId="8" r:id="rId3"/>
-    <sheet name="4-2C" sheetId="2" r:id="rId4"/>
-    <sheet name="1-2C-D" sheetId="3" r:id="rId5"/>
-    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId6"/>
-    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId7"/>
+    <sheet name="1-4C-1-3C-1-2C-2G" sheetId="16" r:id="rId1"/>
+    <sheet name="1-3C-2G-unswapped" sheetId="17" r:id="rId2"/>
+    <sheet name="2C-cats-2G" sheetId="18" r:id="rId3"/>
+    <sheet name="1-4C-2G-incycle" sheetId="1" r:id="rId4"/>
+    <sheet name="1-4C-D" sheetId="7" r:id="rId5"/>
+    <sheet name="1-4C-1-2C-D" sheetId="8" r:id="rId6"/>
+    <sheet name="1-4C-2G" sheetId="9" r:id="rId7"/>
+    <sheet name="2G" sheetId="10" r:id="rId8"/>
+    <sheet name="1-4C-1G" sheetId="11" r:id="rId9"/>
+    <sheet name="comprehensive_search_puzzle" sheetId="19" r:id="rId10"/>
+    <sheet name="1-4C-1-2C-1G" sheetId="12" r:id="rId11"/>
+    <sheet name="1-3C-1-3C-1G" sheetId="13" r:id="rId12"/>
+    <sheet name="diverse_n_mislabels" sheetId="14" r:id="rId13"/>
+    <sheet name="4-2C" sheetId="2" r:id="rId14"/>
+    <sheet name="1-2C-D" sheetId="3" r:id="rId15"/>
+    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId16"/>
+    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="74">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -143,16 +153,143 @@
   </si>
   <si>
     <t>B_RNA3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>alpha1</t>
+  </si>
+  <si>
+    <t>alpha2</t>
+  </si>
+  <si>
+    <t>alpha3</t>
+  </si>
+  <si>
+    <t>alpha4</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>beta2</t>
+  </si>
+  <si>
+    <t>beta3</t>
+  </si>
+  <si>
+    <t>beta4</t>
+  </si>
+  <si>
+    <t>chi1</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>chi3</t>
+  </si>
+  <si>
+    <t>chi4</t>
+  </si>
+  <si>
+    <t>delta1</t>
+  </si>
+  <si>
+    <t>delta2</t>
+  </si>
+  <si>
+    <t>delta3</t>
+  </si>
+  <si>
+    <t>delta4</t>
+  </si>
+  <si>
+    <t>A_RNA1</t>
+  </si>
+  <si>
+    <t>A_ATAC1</t>
+  </si>
+  <si>
+    <t>B_WGS1</t>
+  </si>
+  <si>
+    <t>B_ATAC1</t>
+  </si>
+  <si>
+    <t>C_WGS1</t>
+  </si>
+  <si>
+    <t>C_ATAC1</t>
+  </si>
+  <si>
+    <t>C_RNA1</t>
+  </si>
+  <si>
+    <t>C_RNA2</t>
+  </si>
+  <si>
+    <t>C_RNA3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,8 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,17 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E1653-218F-6341-9C71-A83183BE7799}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170F3B61-A3A0-B441-8ED5-ABD1DB06F1C9}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="B8" sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -525,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -535,9 +672,6 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -558,92 +692,92 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -651,46 +785,175 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -698,12 +961,935 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F7BA6-4AF1-B64E-AA84-5870BE031591}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE4B19-75C8-5A45-BD8C-03C6123C1F05}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1D6944-A429-314F-AE11-019D1C43F44E}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C20ADC-CC1D-2E40-8257-F5B1B2C5C214}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8802BC-9E06-3B4A-B9B6-8F6EC8EEE04A}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,23 +1939,23 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -780,7 +1966,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -791,7 +1977,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -802,29 +1988,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -835,7 +2021,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -846,18 +2032,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -868,18 +2054,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -893,398 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FD474-9409-E64A-9997-B68E0E125787}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871999B-D98D-B040-AD86-D70DC978BDA1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1390,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C929E2B7-19A0-9743-9019-EEC6C3B1DC0F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1496,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F29E94-0DC0-F944-8348-47679538FB10}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1564,4 +2359,1764 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88101079-89F7-2D4F-A4BE-0A15302EF9B3}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939AF862-1B73-E443-9C7A-B49CF885346D}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E1653-218F-6341-9C71-A83183BE7799}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F7BA6-4AF1-B64E-AA84-5870BE031591}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FD474-9409-E64A-9997-B68E0E125787}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32631037-6E38-DB43-B663-4882972A6F67}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECE9FDD-B2CB-9D44-8660-E2231175430D}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999664F9-612F-764E-946C-F399633AF6CB}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121833B6-CA82-CE44-B5C1-AFAB2A952BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80642E9-D2C1-BD46-864D-8454D523829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="740" windowWidth="12780" windowHeight="17140" firstSheet="3" activeTab="9" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
+    <workbookView xWindow="2280" yWindow="740" windowWidth="12780" windowHeight="17000" firstSheet="6" activeTab="9" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4C-1-3C-1-2C-2G" sheetId="16" r:id="rId1"/>
@@ -966,7 +966,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80642E9-D2C1-BD46-864D-8454D523829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C64B02-63B4-E74A-94BA-8F99E543F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="740" windowWidth="12780" windowHeight="17000" firstSheet="6" activeTab="9" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="6" activeTab="10" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4C-1-3C-1-2C-2G" sheetId="16" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="2G" sheetId="10" r:id="rId8"/>
     <sheet name="1-4C-1G" sheetId="11" r:id="rId9"/>
     <sheet name="comprehensive_search_puzzle" sheetId="19" r:id="rId10"/>
-    <sheet name="1-4C-1-2C-1G" sheetId="12" r:id="rId11"/>
-    <sheet name="1-3C-1-3C-1G" sheetId="13" r:id="rId12"/>
-    <sheet name="diverse_n_mislabels" sheetId="14" r:id="rId13"/>
-    <sheet name="4-2C" sheetId="2" r:id="rId14"/>
-    <sheet name="1-2C-D" sheetId="3" r:id="rId15"/>
-    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId16"/>
-    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId17"/>
+    <sheet name="2-2C" sheetId="20" r:id="rId11"/>
+    <sheet name="1-4C-1-2C-1G" sheetId="12" r:id="rId12"/>
+    <sheet name="1-3C-1-3C-1G" sheetId="13" r:id="rId13"/>
+    <sheet name="diverse_n_mislabels" sheetId="14" r:id="rId14"/>
+    <sheet name="4-2C" sheetId="2" r:id="rId15"/>
+    <sheet name="1-2C-D" sheetId="3" r:id="rId16"/>
+    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId17"/>
+    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="86">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -273,6 +274,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Case134_Sample2</t>
+  </si>
+  <si>
+    <t>Case134</t>
+  </si>
+  <si>
+    <t>Genotype_Group294</t>
+  </si>
+  <si>
+    <t>Ctrl096_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl096</t>
+  </si>
+  <si>
+    <t>Genotype_Group346</t>
+  </si>
+  <si>
+    <t>Case134_Sample3</t>
+  </si>
+  <si>
+    <t>Case134_Sample1</t>
+  </si>
+  <si>
+    <t>Genotype_Group134</t>
+  </si>
+  <si>
+    <t>Ctrl044_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl044</t>
+  </si>
+  <si>
+    <t>Ctrl096_Sample2</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE4B19-75C8-5A45-BD8C-03C6123C1F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1062,6 +1099,103 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C33377-26DE-FE41-AD89-B58B7458E09B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1D6944-A429-314F-AE11-019D1C43F44E}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1304,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C20ADC-CC1D-2E40-8257-F5B1B2C5C214}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1547,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8802BC-9E06-3B4A-B9B6-8F6EC8EEE04A}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -1884,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2079,7 +2213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871999B-D98D-B040-AD86-D70DC978BDA1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2185,7 +2319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C929E2B7-19A0-9743-9019-EEC6C3B1DC0F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2291,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F29E94-0DC0-F944-8348-47679538FB10}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C64B02-63B4-E74A-94BA-8F99E543F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8444A99-5134-3941-BDCE-D201FFB86CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="6" activeTab="10" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="6" activeTab="7" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4C-1-3C-1-2C-2G" sheetId="16" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="1-4C-D" sheetId="7" r:id="rId5"/>
     <sheet name="1-4C-1-2C-D" sheetId="8" r:id="rId6"/>
     <sheet name="1-4C-2G" sheetId="9" r:id="rId7"/>
-    <sheet name="2G" sheetId="10" r:id="rId8"/>
-    <sheet name="1-4C-1G" sheetId="11" r:id="rId9"/>
-    <sheet name="comprehensive_search_puzzle" sheetId="19" r:id="rId10"/>
-    <sheet name="2-2C" sheetId="20" r:id="rId11"/>
-    <sheet name="1-4C-1-2C-1G" sheetId="12" r:id="rId12"/>
-    <sheet name="1-3C-1-3C-1G" sheetId="13" r:id="rId13"/>
-    <sheet name="diverse_n_mislabels" sheetId="14" r:id="rId14"/>
-    <sheet name="4-2C" sheetId="2" r:id="rId15"/>
-    <sheet name="1-2C-D" sheetId="3" r:id="rId16"/>
-    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId17"/>
-    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId18"/>
+    <sheet name="Example" sheetId="21" r:id="rId8"/>
+    <sheet name="2G" sheetId="10" r:id="rId9"/>
+    <sheet name="1-4C-1G" sheetId="11" r:id="rId10"/>
+    <sheet name="comprehensive_search_puzzle" sheetId="19" r:id="rId11"/>
+    <sheet name="2-2C" sheetId="20" r:id="rId12"/>
+    <sheet name="1-4C-1-2C-1G" sheetId="12" r:id="rId13"/>
+    <sheet name="1-3C-1-3C-1G" sheetId="13" r:id="rId14"/>
+    <sheet name="diverse_n_mislabels" sheetId="14" r:id="rId15"/>
+    <sheet name="4-2C" sheetId="2" r:id="rId16"/>
+    <sheet name="1-2C-D" sheetId="3" r:id="rId17"/>
+    <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId18"/>
+    <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="96">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -310,6 +311,36 @@
   </si>
   <si>
     <t>Ctrl096_Sample2</t>
+  </si>
+  <si>
+    <t>Andy_1</t>
+  </si>
+  <si>
+    <t>Andy_2</t>
+  </si>
+  <si>
+    <t>Andy_3</t>
+  </si>
+  <si>
+    <t>Bill_1</t>
+  </si>
+  <si>
+    <t>Bill_2</t>
+  </si>
+  <si>
+    <t>Chris_1</t>
+  </si>
+  <si>
+    <t>Chris_2</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Andy_3 - Bill_1, Bill_2 - Chris_1</t>
+  </si>
+  <si>
+    <t>Bill_1 - Andy_3 - Chris_2</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1030,216 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999664F9-612F-764E-946C-F399633AF6CB}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE4B19-75C8-5A45-BD8C-03C6123C1F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1098,11 +1339,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C33377-26DE-FE41-AD89-B58B7458E09B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1195,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1D6944-A429-314F-AE11-019D1C43F44E}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1438,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C20ADC-CC1D-2E40-8257-F5B1B2C5C214}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1681,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8802BC-9E06-3B4A-B9B6-8F6EC8EEE04A}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -2018,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9B8D2-20E3-9C46-888F-4F7C79BDC9E8}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2213,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871999B-D98D-B040-AD86-D70DC978BDA1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2319,7 +2560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C929E2B7-19A0-9743-9019-EEC6C3B1DC0F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2425,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F29E94-0DC0-F944-8348-47679538FB10}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3570,7 +3811,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3806,6 +4047,118 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128533F5-440D-B34A-BAB9-65AE66BE3984}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECE9FDD-B2CB-9D44-8660-E2231175430D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -4043,214 +4396,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999664F9-612F-764E-946C-F399633AF6CB}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/simulations/tests/sample_genotype_data_tests.xlsx
+++ b/simulations/tests/sample_genotype_data_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8444A99-5134-3941-BDCE-D201FFB86CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF4F74-E624-0942-8744-138274533902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="6" activeTab="7" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" firstSheet="8" activeTab="19" xr2:uid="{24718B40-BA6E-C848-85FD-DBE914F41A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4C-1-3C-1-2C-2G" sheetId="16" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="1-2C-D" sheetId="3" r:id="rId17"/>
     <sheet name="Maj_Edge_Case" sheetId="4" r:id="rId18"/>
     <sheet name="2-2C_Edge_Case" sheetId="5" r:id="rId19"/>
+    <sheet name="3C-D" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="108">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -341,6 +342,42 @@
   </si>
   <si>
     <t>Bill_1 - Andy_3 - Chris_2</t>
+  </si>
+  <si>
+    <t>Case0127_Sample1</t>
+  </si>
+  <si>
+    <t>Case0127_Sample2</t>
+  </si>
+  <si>
+    <t>Case0127_Sample3</t>
+  </si>
+  <si>
+    <t>Ctrl1270_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl1270_Sample2</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample3</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample4</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample5</t>
+  </si>
+  <si>
+    <t>Case0127</t>
+  </si>
+  <si>
+    <t>Ctrl1270</t>
+  </si>
+  <si>
+    <t>Ctrl0305</t>
   </si>
 </sst>
 </file>
@@ -401,6 +438,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A8850E-A88D-691F-068B-D224B849424E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="571499"/>
+          <a:ext cx="4711700" cy="5040423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2671,7 +2757,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3021,6 +3107,135 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD89D7-EDF2-5743-935F-C268F844D4B9}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4050,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128533F5-440D-B34A-BAB9-65AE66BE3984}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
